--- a/DATA FILES/Extracted_Data/ar_2011.xlsx
+++ b/DATA FILES/Extracted_Data/ar_2011.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,42 +434,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Aveiro</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>05/06/2011</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>PTP</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>993</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DESIGNAÇÃO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T_ELEI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D_ELEI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SIGLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T_DADOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VOTOS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_VOTOS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MANDATOS</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -481,7 +501,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -490,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1318</v>
+        <v>993</v>
       </c>
       <c r="H2" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -520,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,10 +549,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -559,7 +579,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -598,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,10 +627,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -637,7 +657,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,13 +666,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>49539</v>
+        <v>720</v>
       </c>
       <c r="H6" t="n">
-        <v>12.89</v>
+        <v>0.19</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +696,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,13 +705,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>19327</v>
+        <v>49539</v>
       </c>
       <c r="H7" t="n">
-        <v>5.03</v>
+        <v>12.89</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -715,7 +735,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -724,13 +744,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>15729</v>
+        <v>19327</v>
       </c>
       <c r="H8" t="n">
-        <v>4.09</v>
+        <v>5.03</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +774,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -763,10 +783,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3284</v>
+        <v>15729</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>4.09</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -793,7 +813,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -802,10 +822,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>408</v>
+        <v>3284</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11</v>
+        <v>0.85</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -832,7 +852,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -841,10 +861,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1354</v>
+        <v>408</v>
       </c>
       <c r="H11" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -871,7 +891,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -880,13 +900,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>170869</v>
+        <v>1354</v>
       </c>
       <c r="H12" t="n">
-        <v>44.46</v>
+        <v>0.35</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -910,7 +930,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -919,13 +939,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>99652</v>
+        <v>170869</v>
       </c>
       <c r="H13" t="n">
-        <v>25.93</v>
+        <v>44.46</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -949,7 +969,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -958,13 +978,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1297</v>
+        <v>99652</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>25.93</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -988,7 +1008,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -997,10 +1017,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1046</v>
+        <v>1297</v>
       </c>
       <c r="H15" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1027,7 +1047,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1036,10 +1056,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3040</v>
+        <v>1046</v>
       </c>
       <c r="H16" t="n">
-        <v>0.79</v>
+        <v>0.27</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1047,11 +1067,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Beja</t>
+          <t>Aveiro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1066,7 +1086,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1075,10 +1095,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>232</v>
+        <v>3040</v>
       </c>
       <c r="H17" t="n">
-        <v>0.31</v>
+        <v>0.79</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1105,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1114,10 +1134,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="H18" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1144,7 +1164,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1153,10 +1173,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H19" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1183,7 +1203,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1192,10 +1212,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3890</v>
+        <v>191</v>
       </c>
       <c r="H20" t="n">
-        <v>5.2</v>
+        <v>0.26</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1222,7 +1242,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1231,10 +1251,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>532</v>
+        <v>3890</v>
       </c>
       <c r="H21" t="n">
-        <v>0.71</v>
+        <v>5.2</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1261,7 +1281,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1270,10 +1290,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>255</v>
+        <v>532</v>
       </c>
       <c r="H22" t="n">
-        <v>0.34</v>
+        <v>0.71</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1300,7 +1320,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1309,13 +1329,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>22307</v>
+        <v>255</v>
       </c>
       <c r="H23" t="n">
-        <v>29.8</v>
+        <v>0.34</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1339,7 +1359,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1348,10 +1368,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>17710</v>
+        <v>22307</v>
       </c>
       <c r="H24" t="n">
-        <v>23.65</v>
+        <v>29.8</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1378,7 +1398,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1387,13 +1407,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>17710</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>23.65</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1417,7 +1437,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1426,10 +1446,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1456,7 +1476,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1465,10 +1485,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1495,7 +1515,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1504,10 +1524,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1534,7 +1554,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1543,10 +1563,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1573,7 +1593,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1582,10 +1602,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1612,7 +1632,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1621,13 +1641,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>19000</v>
+        <v>1980</v>
       </c>
       <c r="H31" t="n">
-        <v>25.38</v>
+        <v>2.64</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1651,7 +1671,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1660,13 +1680,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5463</v>
+        <v>19000</v>
       </c>
       <c r="H32" t="n">
-        <v>7.3</v>
+        <v>25.38</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1690,7 +1710,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1699,10 +1719,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5463</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1710,11 +1730,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Beja</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1729,7 +1749,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1738,10 +1758,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1768,7 +1788,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1777,10 +1797,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1114</v>
+        <v>693</v>
       </c>
       <c r="H35" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1807,7 +1827,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1816,10 +1836,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1959</v>
+        <v>1114</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1846,7 +1866,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1855,13 +1875,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>159476</v>
+        <v>1959</v>
       </c>
       <c r="H37" t="n">
-        <v>32.86</v>
+        <v>0.4</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1885,7 +1905,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1894,13 +1914,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>194550</v>
+        <v>159476</v>
       </c>
       <c r="H38" t="n">
-        <v>40.08</v>
+        <v>32.86</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1924,7 +1944,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1933,13 +1953,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1094</v>
+        <v>194550</v>
       </c>
       <c r="H39" t="n">
-        <v>0.23</v>
+        <v>40.08</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1963,7 +1983,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1972,10 +1992,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2710</v>
+        <v>1094</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2002,7 +2022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2011,10 +2031,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>20488</v>
+        <v>2710</v>
       </c>
       <c r="H41" t="n">
-        <v>4.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2041,7 +2061,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2050,13 +2070,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>50421</v>
+        <v>20488</v>
       </c>
       <c r="H42" t="n">
-        <v>10.39</v>
+        <v>4.22</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2080,7 +2100,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2089,13 +2109,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>23731</v>
+        <v>50421</v>
       </c>
       <c r="H43" t="n">
-        <v>4.89</v>
+        <v>10.39</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2119,7 +2139,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2128,13 +2148,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4264</v>
+        <v>23731</v>
       </c>
       <c r="H44" t="n">
-        <v>0.88</v>
+        <v>4.89</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2158,7 +2178,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2167,10 +2187,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>593</v>
+        <v>4264</v>
       </c>
       <c r="H45" t="n">
-        <v>0.12</v>
+        <v>0.88</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2197,7 +2217,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2206,10 +2226,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2236,7 +2256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2245,10 +2265,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2328</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2275,7 +2295,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2284,10 +2304,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>783</v>
+        <v>2328</v>
       </c>
       <c r="H48" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2314,7 +2334,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2323,10 +2343,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1630</v>
+        <v>783</v>
       </c>
       <c r="H49" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2353,7 +2373,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2362,10 +2382,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1465</v>
+        <v>1630</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2373,11 +2393,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bragança</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2392,7 +2412,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2401,10 +2421,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>282</v>
+        <v>1465</v>
       </c>
       <c r="H51" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2431,7 +2451,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2440,13 +2460,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>39338</v>
+        <v>282</v>
       </c>
       <c r="H52" t="n">
-        <v>52.05</v>
+        <v>0.37</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2470,7 +2490,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2479,13 +2499,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1732</v>
+        <v>39338</v>
       </c>
       <c r="H53" t="n">
-        <v>2.29</v>
+        <v>52.05</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2509,7 +2529,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2518,10 +2538,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>8378</v>
+        <v>1732</v>
       </c>
       <c r="H54" t="n">
-        <v>11.09</v>
+        <v>2.29</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2548,7 +2568,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2557,10 +2577,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1956</v>
+        <v>8378</v>
       </c>
       <c r="H55" t="n">
-        <v>2.59</v>
+        <v>11.09</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2587,7 +2607,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2596,10 +2616,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>417</v>
+        <v>1956</v>
       </c>
       <c r="H56" t="n">
-        <v>0.55</v>
+        <v>2.59</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2626,7 +2646,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2635,10 +2655,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>146</v>
+        <v>417</v>
       </c>
       <c r="H57" t="n">
-        <v>0.19</v>
+        <v>0.55</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2665,7 +2685,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2674,10 +2694,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2704,7 +2724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2713,10 +2733,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2743,7 +2763,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2782,7 +2802,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2791,13 +2811,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>19728</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2821,7 +2841,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2830,13 +2850,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>247</v>
+        <v>19728</v>
       </c>
       <c r="H62" t="n">
-        <v>0.33</v>
+        <v>26.1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2860,7 +2880,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2869,10 +2889,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="H63" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2899,7 +2919,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2908,10 +2928,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H64" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2938,7 +2958,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2947,10 +2967,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2977,7 +2997,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2986,10 +3006,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3016,7 +3036,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3036,11 +3056,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Castelo Branco</t>
+          <t>Bragança</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3055,7 +3075,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3064,13 +3084,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>41754</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>37.92</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3094,7 +3114,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3103,13 +3123,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>41754</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>37.92</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3133,7 +3153,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3172,7 +3192,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3211,7 +3231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3250,7 +3270,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3259,10 +3279,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3289,7 +3309,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3298,10 +3318,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5384</v>
+        <v>1454</v>
       </c>
       <c r="H74" t="n">
-        <v>4.89</v>
+        <v>1.32</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3328,7 +3348,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3337,10 +3357,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>10571</v>
+        <v>5384</v>
       </c>
       <c r="H75" t="n">
-        <v>9.6</v>
+        <v>4.89</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3367,7 +3387,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3376,10 +3396,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4609</v>
+        <v>10571</v>
       </c>
       <c r="H76" t="n">
-        <v>4.19</v>
+        <v>9.6</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3406,7 +3426,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3415,10 +3435,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>4609</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3445,7 +3465,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3454,10 +3474,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3484,7 +3504,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3493,10 +3513,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>770</v>
+        <v>403</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7</v>
+        <v>0.37</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3523,7 +3543,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3532,10 +3552,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>219</v>
+        <v>770</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3562,7 +3582,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3571,10 +3591,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>355</v>
+        <v>219</v>
       </c>
       <c r="H81" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3601,7 +3621,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3610,10 +3630,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>543</v>
+        <v>355</v>
       </c>
       <c r="H82" t="n">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3640,7 +3660,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3649,10 +3669,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>428</v>
+        <v>543</v>
       </c>
       <c r="H83" t="n">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3679,7 +3699,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3688,22 +3708,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>38317</v>
+        <v>428</v>
       </c>
       <c r="H84" t="n">
-        <v>34.8</v>
+        <v>0.39</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Castelo Branco</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3718,7 +3738,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3727,13 +3747,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>14138</v>
+        <v>38317</v>
       </c>
       <c r="H85" t="n">
-        <v>6.23</v>
+        <v>34.8</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3757,7 +3777,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3766,10 +3786,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>336</v>
+        <v>14138</v>
       </c>
       <c r="H86" t="n">
-        <v>0.15</v>
+        <v>6.23</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3796,7 +3816,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3805,10 +3825,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2535</v>
+        <v>336</v>
       </c>
       <c r="H87" t="n">
-        <v>1.12</v>
+        <v>0.15</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3835,7 +3855,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3844,10 +3864,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>557</v>
+        <v>2535</v>
       </c>
       <c r="H88" t="n">
-        <v>0.25</v>
+        <v>1.12</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3874,7 +3894,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3883,10 +3903,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>662</v>
+        <v>557</v>
       </c>
       <c r="H89" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -3913,7 +3933,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3922,13 +3942,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>66199</v>
+        <v>662</v>
       </c>
       <c r="H90" t="n">
-        <v>29.19</v>
+        <v>0.29</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3952,7 +3972,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3961,13 +3981,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>91028</v>
+        <v>66199</v>
       </c>
       <c r="H91" t="n">
-        <v>40.14</v>
+        <v>29.19</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3991,7 +4011,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4000,13 +4020,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>91028</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>40.14</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -4030,7 +4050,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4039,10 +4059,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4069,7 +4089,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4078,10 +4098,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="H94" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4108,7 +4128,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4117,10 +4137,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4147,7 +4167,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4156,10 +4176,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4186,7 +4206,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4195,10 +4215,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2014</v>
+        <v>600</v>
       </c>
       <c r="H97" t="n">
-        <v>0.89</v>
+        <v>0.26</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -4225,7 +4245,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4234,13 +4254,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>22391</v>
+        <v>2014</v>
       </c>
       <c r="H98" t="n">
-        <v>9.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4264,7 +4284,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4273,13 +4293,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>13034</v>
+        <v>22391</v>
       </c>
       <c r="H99" t="n">
-        <v>5.75</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4303,7 +4323,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4312,10 +4332,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>13034</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -4342,7 +4362,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4351,10 +4371,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4362,11 +4382,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Évora</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4381,7 +4401,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4390,10 +4410,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>649</v>
+        <v>900</v>
       </c>
       <c r="H102" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4420,7 +4440,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4429,10 +4449,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>237</v>
+        <v>649</v>
       </c>
       <c r="H103" t="n">
-        <v>0.28</v>
+        <v>0.75</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4459,7 +4479,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4468,10 +4488,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4498,7 +4518,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4507,13 +4527,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>25010</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>29.04</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4537,7 +4557,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4546,10 +4566,10 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>23747</v>
+        <v>25010</v>
       </c>
       <c r="H106" t="n">
-        <v>27.57</v>
+        <v>29.04</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -4576,7 +4596,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4585,13 +4605,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>153</v>
+        <v>23747</v>
       </c>
       <c r="H107" t="n">
-        <v>0.18</v>
+        <v>27.57</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4615,7 +4635,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4624,10 +4644,10 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4654,7 +4674,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4663,10 +4683,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="H109" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -4693,7 +4713,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4702,10 +4722,10 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="H110" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4732,7 +4752,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4741,10 +4761,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4771,7 +4791,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4780,10 +4800,10 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4810,7 +4830,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4819,13 +4839,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>18967</v>
+        <v>1810</v>
       </c>
       <c r="H113" t="n">
-        <v>22.02</v>
+        <v>2.1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4849,7 +4869,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4858,13 +4878,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7513</v>
+        <v>18967</v>
       </c>
       <c r="H114" t="n">
-        <v>8.720000000000001</v>
+        <v>22.02</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4888,7 +4908,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4897,10 +4917,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4225</v>
+        <v>7513</v>
       </c>
       <c r="H115" t="n">
-        <v>4.91</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4927,7 +4947,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4936,10 +4956,10 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>4225</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>4.91</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -4966,7 +4986,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4975,10 +4995,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -5005,7 +5025,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5014,10 +5034,10 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="H118" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -5025,11 +5045,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Faro</t>
+          <t>Évora</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5044,7 +5064,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5053,13 +5073,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>17255</v>
+        <v>216</v>
       </c>
       <c r="H119" t="n">
-        <v>8.6</v>
+        <v>0.25</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5083,7 +5103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5092,13 +5112,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>700</v>
+        <v>17255</v>
       </c>
       <c r="H120" t="n">
-        <v>0.35</v>
+        <v>8.6</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5122,7 +5142,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5131,13 +5151,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>25441</v>
+        <v>700</v>
       </c>
       <c r="H121" t="n">
-        <v>12.68</v>
+        <v>0.35</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5161,7 +5181,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5170,10 +5190,10 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>16347</v>
+        <v>25441</v>
       </c>
       <c r="H122" t="n">
-        <v>8.15</v>
+        <v>12.68</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -5200,7 +5220,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5209,13 +5229,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3160</v>
+        <v>16347</v>
       </c>
       <c r="H123" t="n">
-        <v>1.58</v>
+        <v>8.15</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -5239,7 +5259,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5248,10 +5268,10 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2076</v>
+        <v>3160</v>
       </c>
       <c r="H124" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -5278,7 +5298,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5287,13 +5307,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>46082</v>
+        <v>2076</v>
       </c>
       <c r="H125" t="n">
-        <v>22.97</v>
+        <v>1.03</v>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5317,7 +5337,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5326,13 +5346,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>74304</v>
+        <v>46082</v>
       </c>
       <c r="H126" t="n">
-        <v>37.03</v>
+        <v>22.97</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -5356,7 +5376,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5365,13 +5385,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>263</v>
+        <v>74304</v>
       </c>
       <c r="H127" t="n">
-        <v>0.13</v>
+        <v>37.03</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -5395,7 +5415,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5404,10 +5424,10 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1069</v>
+        <v>263</v>
       </c>
       <c r="H128" t="n">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -5434,7 +5454,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5443,10 +5463,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -5473,7 +5493,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5512,7 +5532,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5551,7 +5571,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5560,10 +5580,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -5590,7 +5610,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5599,10 +5619,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1083</v>
+        <v>640</v>
       </c>
       <c r="H133" t="n">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -5629,7 +5649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5638,10 +5658,10 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -5668,7 +5688,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5677,10 +5697,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3285</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -5688,11 +5708,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Guarda</t>
+          <t>Faro</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5707,7 +5727,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5716,10 +5736,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>199</v>
+        <v>3285</v>
       </c>
       <c r="H136" t="n">
-        <v>0.21</v>
+        <v>1.64</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -5746,7 +5766,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5755,10 +5775,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H137" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -5785,7 +5805,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5794,10 +5814,10 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -5824,7 +5844,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5833,10 +5853,10 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3114</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -5863,7 +5883,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5872,10 +5892,10 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>10426</v>
+        <v>3114</v>
       </c>
       <c r="H140" t="n">
-        <v>11.23</v>
+        <v>3.35</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -5902,7 +5922,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5911,10 +5931,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3299</v>
+        <v>10426</v>
       </c>
       <c r="H141" t="n">
-        <v>3.55</v>
+        <v>11.23</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -5941,7 +5961,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5950,10 +5970,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>755</v>
+        <v>3299</v>
       </c>
       <c r="H142" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -5980,7 +6000,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5989,10 +6009,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>200</v>
+        <v>755</v>
       </c>
       <c r="H143" t="n">
-        <v>0.22</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -6019,7 +6039,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6028,10 +6048,10 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -6058,7 +6078,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6067,10 +6087,10 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -6097,7 +6117,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6106,13 +6126,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>43024</v>
+        <v>178</v>
       </c>
       <c r="H146" t="n">
-        <v>46.33</v>
+        <v>0.19</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6136,7 +6156,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6145,13 +6165,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>26263</v>
+        <v>43024</v>
       </c>
       <c r="H147" t="n">
-        <v>28.28</v>
+        <v>46.33</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -6175,7 +6195,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6184,13 +6204,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>251</v>
+        <v>26263</v>
       </c>
       <c r="H148" t="n">
-        <v>0.27</v>
+        <v>28.28</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -6214,7 +6234,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6223,10 +6243,10 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="H149" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -6253,7 +6273,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6262,10 +6282,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>520</v>
+        <v>191</v>
       </c>
       <c r="H150" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -6292,7 +6312,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6301,10 +6321,10 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="H151" t="n">
-        <v>0.31</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -6331,7 +6351,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6340,10 +6360,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -6351,11 +6371,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Guarda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6409,7 +6429,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6448,7 +6468,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6487,7 +6507,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6496,10 +6516,10 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2502</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -6526,7 +6546,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6535,10 +6555,10 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>12351</v>
+        <v>2502</v>
       </c>
       <c r="H157" t="n">
-        <v>4.97</v>
+        <v>1.01</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -6565,7 +6585,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6574,13 +6594,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>31821</v>
+        <v>12351</v>
       </c>
       <c r="H158" t="n">
-        <v>12.79</v>
+        <v>4.97</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6604,7 +6624,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>B.E</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6613,13 +6633,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>13351</v>
+        <v>31821</v>
       </c>
       <c r="H159" t="n">
-        <v>5.37</v>
+        <v>12.79</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -6643,7 +6663,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>B.E</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6652,13 +6672,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>116941</v>
+        <v>13351</v>
       </c>
       <c r="H160" t="n">
-        <v>47.01</v>
+        <v>5.37</v>
       </c>
       <c r="I160" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6682,7 +6702,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6691,13 +6711,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>595</v>
+        <v>116941</v>
       </c>
       <c r="H161" t="n">
-        <v>0.24</v>
+        <v>47.01</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -6721,7 +6741,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6730,10 +6750,10 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>445</v>
+        <v>595</v>
       </c>
       <c r="H162" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -6760,7 +6780,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6769,10 +6789,10 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>633</v>
+        <v>445</v>
       </c>
       <c r="H163" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -6799,7 +6819,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6808,10 +6828,10 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1084</v>
+        <v>633</v>
       </c>
       <c r="H164" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -6838,7 +6858,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6847,10 +6867,10 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>551</v>
+        <v>1084</v>
       </c>
       <c r="H165" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -6877,7 +6897,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6886,10 +6906,10 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3029</v>
+        <v>551</v>
       </c>
       <c r="H166" t="n">
-        <v>1.22</v>
+        <v>0.22</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -6916,7 +6936,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6925,10 +6945,10 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>453</v>
+        <v>3029</v>
       </c>
       <c r="H167" t="n">
-        <v>0.18</v>
+        <v>1.22</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -6955,7 +6975,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6964,10 +6984,10 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>977</v>
+        <v>453</v>
       </c>
       <c r="H168" t="n">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -6994,7 +7014,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7003,22 +7023,22 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>51518</v>
+        <v>977</v>
       </c>
       <c r="H169" t="n">
-        <v>20.71</v>
+        <v>0.39</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7033,7 +7053,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -7042,13 +7062,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4270</v>
+        <v>51518</v>
       </c>
       <c r="H170" t="n">
-        <v>0.37</v>
+        <v>20.71</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -7072,7 +7092,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7081,10 +7101,10 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>16913</v>
+        <v>4270</v>
       </c>
       <c r="H171" t="n">
-        <v>1.45</v>
+        <v>0.37</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -7111,7 +7131,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7120,10 +7140,10 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1990</v>
+        <v>16913</v>
       </c>
       <c r="H172" t="n">
-        <v>0.17</v>
+        <v>1.45</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -7150,7 +7170,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7159,10 +7179,10 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2410</v>
+        <v>1990</v>
       </c>
       <c r="H173" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -7189,7 +7209,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7198,10 +7218,10 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6208</v>
+        <v>2410</v>
       </c>
       <c r="H174" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -7228,7 +7248,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7237,13 +7257,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>399124</v>
+        <v>6208</v>
       </c>
       <c r="H175" t="n">
-        <v>34.13</v>
+        <v>0.53</v>
       </c>
       <c r="I175" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -7267,7 +7287,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7276,13 +7296,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>322034</v>
+        <v>399124</v>
       </c>
       <c r="H176" t="n">
-        <v>27.54</v>
+        <v>34.13</v>
       </c>
       <c r="I176" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -7306,7 +7326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7315,13 +7335,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1829</v>
+        <v>322034</v>
       </c>
       <c r="H177" t="n">
-        <v>0.16</v>
+        <v>27.54</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178">
@@ -7345,7 +7365,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7354,10 +7374,10 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5897</v>
+        <v>1829</v>
       </c>
       <c r="H178" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -7384,7 +7404,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7393,10 +7413,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1937</v>
+        <v>5897</v>
       </c>
       <c r="H179" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -7423,7 +7443,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7432,10 +7452,10 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1764</v>
+        <v>1937</v>
       </c>
       <c r="H180" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -7462,7 +7482,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7471,10 +7491,10 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -7501,7 +7521,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7510,10 +7530,10 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>14419</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -7540,7 +7560,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7549,13 +7569,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>111661</v>
+        <v>14419</v>
       </c>
       <c r="H183" t="n">
-        <v>9.550000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="I183" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -7579,7 +7599,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7588,13 +7608,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>161241</v>
+        <v>111661</v>
       </c>
       <c r="H184" t="n">
-        <v>13.79</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I184" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
@@ -7618,7 +7638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7627,13 +7647,13 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>66874</v>
+        <v>161241</v>
       </c>
       <c r="H185" t="n">
-        <v>5.72</v>
+        <v>13.79</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -7657,7 +7677,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7666,22 +7686,22 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4135</v>
+        <v>66874</v>
       </c>
       <c r="H186" t="n">
-        <v>0.35</v>
+        <v>5.72</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Portalegre</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7696,7 +7716,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7705,10 +7725,10 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>227</v>
+        <v>4135</v>
       </c>
       <c r="H187" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -7735,7 +7755,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7744,10 +7764,10 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -7774,7 +7794,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7783,10 +7803,10 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -7813,7 +7833,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7822,10 +7842,10 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2753</v>
+        <v>1031</v>
       </c>
       <c r="H190" t="n">
-        <v>4.47</v>
+        <v>1.67</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -7852,7 +7872,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7861,10 +7881,10 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7910</v>
+        <v>2753</v>
       </c>
       <c r="H191" t="n">
-        <v>12.84</v>
+        <v>4.47</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -7891,7 +7911,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7900,10 +7920,10 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>7910</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -7930,7 +7950,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7939,10 +7959,10 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -7969,7 +7989,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7978,10 +7998,10 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -8008,7 +8028,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8017,10 +8037,10 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -8047,7 +8067,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8056,10 +8076,10 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="H196" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -8086,7 +8106,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8095,13 +8115,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>19992</v>
+        <v>80</v>
       </c>
       <c r="H197" t="n">
-        <v>32.45</v>
+        <v>0.13</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -8125,7 +8145,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8134,10 +8154,10 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>19963</v>
+        <v>19992</v>
       </c>
       <c r="H198" t="n">
-        <v>32.4</v>
+        <v>32.45</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -8164,7 +8184,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8173,13 +8193,13 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>176</v>
+        <v>19963</v>
       </c>
       <c r="H199" t="n">
-        <v>0.29</v>
+        <v>32.4</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -8203,7 +8223,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8212,10 +8232,10 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="H200" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -8242,7 +8262,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8251,10 +8271,10 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="H201" t="n">
-        <v>0.54</v>
+        <v>0.22</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -8281,7 +8301,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8290,10 +8310,10 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>6265</v>
+        <v>333</v>
       </c>
       <c r="H202" t="n">
-        <v>10.17</v>
+        <v>0.54</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -8320,7 +8340,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8329,10 +8349,10 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>162</v>
+        <v>6265</v>
       </c>
       <c r="H203" t="n">
-        <v>0.26</v>
+        <v>10.17</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -8340,11 +8360,11 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Portalegre</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8359,7 +8379,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8368,10 +8388,10 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1550</v>
+        <v>162</v>
       </c>
       <c r="H204" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -8398,7 +8418,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -8407,10 +8427,10 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>515</v>
+        <v>1550</v>
       </c>
       <c r="H205" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -8437,7 +8457,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8446,10 +8466,10 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1551</v>
+        <v>515</v>
       </c>
       <c r="H206" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -8476,7 +8496,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8485,10 +8505,10 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>9072</v>
+        <v>1551</v>
       </c>
       <c r="H207" t="n">
-        <v>0.91</v>
+        <v>0.16</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -8515,7 +8535,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8524,10 +8544,10 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1525</v>
+        <v>9072</v>
       </c>
       <c r="H208" t="n">
-        <v>0.15</v>
+        <v>0.91</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -8554,7 +8574,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8563,10 +8583,10 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2960</v>
+        <v>1525</v>
       </c>
       <c r="H209" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -8593,7 +8613,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8602,10 +8622,10 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3386</v>
+        <v>2960</v>
       </c>
       <c r="H210" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -8632,7 +8652,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8641,10 +8661,10 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1098</v>
+        <v>3386</v>
       </c>
       <c r="H211" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -8671,7 +8691,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8680,10 +8700,10 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1194</v>
+        <v>1098</v>
       </c>
       <c r="H212" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -8710,7 +8730,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8719,10 +8739,10 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2217</v>
+        <v>1194</v>
       </c>
       <c r="H213" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -8749,7 +8769,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8758,10 +8778,10 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>9640</v>
+        <v>2217</v>
       </c>
       <c r="H214" t="n">
-        <v>0.97</v>
+        <v>0.22</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -8788,7 +8808,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -8797,13 +8817,13 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>61832</v>
+        <v>9640</v>
       </c>
       <c r="H215" t="n">
-        <v>6.22</v>
+        <v>0.97</v>
       </c>
       <c r="I215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -8827,7 +8847,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8836,10 +8856,10 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>51002</v>
+        <v>61832</v>
       </c>
       <c r="H216" t="n">
-        <v>5.13</v>
+        <v>6.22</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -8866,7 +8886,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8875,13 +8895,13 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>389007</v>
+        <v>51002</v>
       </c>
       <c r="H217" t="n">
-        <v>39.16</v>
+        <v>5.13</v>
       </c>
       <c r="I217" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -8905,7 +8925,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8914,13 +8934,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>99395</v>
+        <v>389007</v>
       </c>
       <c r="H218" t="n">
-        <v>10</v>
+        <v>39.16</v>
       </c>
       <c r="I218" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219">
@@ -8944,7 +8964,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8953,13 +8973,13 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2413</v>
+        <v>99395</v>
       </c>
       <c r="H219" t="n">
-        <v>0.24</v>
+        <v>10</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220">
@@ -8983,7 +9003,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8992,22 +9012,22 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>318113</v>
+        <v>2413</v>
       </c>
       <c r="H220" t="n">
-        <v>32.02</v>
+        <v>0.24</v>
       </c>
       <c r="I220" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Santarém</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9022,7 +9042,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -9031,13 +9051,13 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>13712</v>
+        <v>318113</v>
       </c>
       <c r="H221" t="n">
-        <v>5.8</v>
+        <v>32.02</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
@@ -9061,7 +9081,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -9070,13 +9090,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>29073</v>
+        <v>13712</v>
       </c>
       <c r="H222" t="n">
-        <v>12.3</v>
+        <v>5.8</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -9100,7 +9120,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -9109,13 +9129,13 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1151</v>
+        <v>29073</v>
       </c>
       <c r="H223" t="n">
-        <v>0.49</v>
+        <v>12.3</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -9139,7 +9159,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -9148,10 +9168,10 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -9178,7 +9198,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -9187,10 +9207,10 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2220</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -9217,7 +9237,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -9226,10 +9246,10 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>726</v>
+        <v>2220</v>
       </c>
       <c r="H226" t="n">
-        <v>0.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -9256,7 +9276,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -9265,13 +9285,13 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>61194</v>
+        <v>726</v>
       </c>
       <c r="H227" t="n">
-        <v>25.9</v>
+        <v>0.31</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -9295,7 +9315,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -9304,13 +9324,13 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1454</v>
+        <v>61194</v>
       </c>
       <c r="H228" t="n">
-        <v>0.62</v>
+        <v>25.9</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -9334,7 +9354,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -9343,10 +9363,10 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>439</v>
+        <v>1454</v>
       </c>
       <c r="H229" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -9373,7 +9393,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -9382,10 +9402,10 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>832</v>
+        <v>439</v>
       </c>
       <c r="H230" t="n">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -9412,7 +9432,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -9421,10 +9441,10 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>620</v>
+        <v>832</v>
       </c>
       <c r="H231" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -9451,7 +9471,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -9460,10 +9480,10 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -9490,7 +9510,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -9529,7 +9549,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9538,10 +9558,10 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3413</v>
+        <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -9568,7 +9588,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -9577,13 +9597,13 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>21347</v>
+        <v>3413</v>
       </c>
       <c r="H235" t="n">
-        <v>9.029999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -9607,7 +9627,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -9616,13 +9636,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>88955</v>
+        <v>21347</v>
       </c>
       <c r="H236" t="n">
-        <v>37.64</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I236" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -9646,7 +9666,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -9655,22 +9675,22 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>692</v>
+        <v>88955</v>
       </c>
       <c r="H237" t="n">
-        <v>0.29</v>
+        <v>37.64</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Setúbal</t>
+          <t>Santarém</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9685,7 +9705,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -9694,13 +9714,13 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>105583</v>
+        <v>692</v>
       </c>
       <c r="H238" t="n">
-        <v>25.19</v>
+        <v>0.29</v>
       </c>
       <c r="I238" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -9724,7 +9744,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -9733,13 +9753,13 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>82159</v>
+        <v>105583</v>
       </c>
       <c r="H239" t="n">
-        <v>19.6</v>
+        <v>25.19</v>
       </c>
       <c r="I239" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
@@ -9763,7 +9783,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>PCPT/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -9772,13 +9792,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>6043</v>
+        <v>82159</v>
       </c>
       <c r="H240" t="n">
-        <v>1.44</v>
+        <v>19.6</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
@@ -9802,7 +9822,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCPT/MRPP</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9811,10 +9831,10 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>6043</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -9841,7 +9861,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -9880,7 +9900,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -9889,10 +9909,10 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -9919,7 +9939,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -9928,10 +9948,10 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1191</v>
+        <v>661</v>
       </c>
       <c r="H244" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -9958,7 +9978,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -9967,10 +9987,10 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>6282</v>
+        <v>1191</v>
       </c>
       <c r="H245" t="n">
-        <v>1.5</v>
+        <v>0.28</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -9997,7 +10017,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -10006,10 +10026,10 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>308</v>
+        <v>6282</v>
       </c>
       <c r="H246" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -10036,7 +10056,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -10045,13 +10065,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>112764</v>
+        <v>308</v>
       </c>
       <c r="H247" t="n">
-        <v>26.9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I247" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -10075,7 +10095,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -10084,13 +10104,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1682</v>
+        <v>112764</v>
       </c>
       <c r="H248" t="n">
-        <v>0.4</v>
+        <v>26.9</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
@@ -10114,7 +10134,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -10123,10 +10143,10 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>847</v>
+        <v>1682</v>
       </c>
       <c r="H249" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -10153,7 +10173,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -10162,13 +10182,13 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>50861</v>
+        <v>847</v>
       </c>
       <c r="H250" t="n">
-        <v>12.13</v>
+        <v>0.2</v>
       </c>
       <c r="I250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -10192,7 +10212,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -10201,13 +10221,13 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1595</v>
+        <v>50861</v>
       </c>
       <c r="H251" t="n">
-        <v>0.38</v>
+        <v>12.13</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -10231,7 +10251,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -10240,13 +10260,13 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>29667</v>
+        <v>1595</v>
       </c>
       <c r="H252" t="n">
-        <v>7.08</v>
+        <v>0.38</v>
       </c>
       <c r="I252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -10270,7 +10290,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -10279,13 +10299,13 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1133</v>
+        <v>29667</v>
       </c>
       <c r="H253" t="n">
-        <v>0.27</v>
+        <v>7.08</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -10309,7 +10329,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -10318,10 +10338,10 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1799</v>
+        <v>1133</v>
       </c>
       <c r="H254" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -10329,11 +10349,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Viana do Castelo</t>
+          <t>Setúbal</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10348,7 +10368,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -10357,10 +10377,10 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1799</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -10387,7 +10407,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -10396,10 +10416,10 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -10426,7 +10446,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -10435,10 +10455,10 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -10465,7 +10485,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -10474,10 +10494,10 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5928</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>4.39</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -10504,7 +10524,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -10513,13 +10533,13 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>18135</v>
+        <v>5928</v>
       </c>
       <c r="H259" t="n">
-        <v>13.44</v>
+        <v>4.39</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -10543,7 +10563,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -10552,13 +10572,13 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>6648</v>
+        <v>18135</v>
       </c>
       <c r="H260" t="n">
-        <v>4.93</v>
+        <v>13.44</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -10582,7 +10602,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -10591,10 +10611,10 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1473</v>
+        <v>6648</v>
       </c>
       <c r="H261" t="n">
-        <v>1.09</v>
+        <v>4.93</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -10621,7 +10641,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -10630,10 +10650,10 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>200</v>
+        <v>1473</v>
       </c>
       <c r="H262" t="n">
-        <v>0.15</v>
+        <v>1.09</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -10660,7 +10680,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -10669,10 +10689,10 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>926</v>
+        <v>200</v>
       </c>
       <c r="H263" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -10699,7 +10719,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -10708,10 +10728,10 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>573</v>
+        <v>926</v>
       </c>
       <c r="H264" t="n">
-        <v>0.42</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -10738,7 +10758,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -10747,10 +10767,10 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>331</v>
+        <v>573</v>
       </c>
       <c r="H265" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -10777,7 +10797,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -10786,10 +10806,10 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="H266" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -10816,7 +10836,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -10825,10 +10845,10 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -10855,7 +10875,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -10864,10 +10884,10 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -10894,7 +10914,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -10903,10 +10923,10 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -10933,7 +10953,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -10942,13 +10962,13 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>58826</v>
+        <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>43.61</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -10972,7 +10992,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -10981,22 +11001,22 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>35327</v>
+        <v>58826</v>
       </c>
       <c r="H271" t="n">
-        <v>26.19</v>
+        <v>43.61</v>
       </c>
       <c r="I271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Vila Real</t>
+          <t>Viana do Castelo</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11011,7 +11031,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -11020,13 +11040,13 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>10385</v>
+        <v>35327</v>
       </c>
       <c r="H272" t="n">
-        <v>8.69</v>
+        <v>26.19</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -11050,7 +11070,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -11059,10 +11079,10 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2784</v>
+        <v>10385</v>
       </c>
       <c r="H273" t="n">
-        <v>2.33</v>
+        <v>8.69</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -11089,7 +11109,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -11098,10 +11118,10 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>254</v>
+        <v>2784</v>
       </c>
       <c r="H274" t="n">
-        <v>0.21</v>
+        <v>2.33</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -11128,7 +11148,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -11137,10 +11157,10 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>675</v>
+        <v>254</v>
       </c>
       <c r="H275" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -11167,7 +11187,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -11176,10 +11196,10 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>121</v>
+        <v>675</v>
       </c>
       <c r="H276" t="n">
-        <v>0.1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -11206,7 +11226,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -11215,10 +11235,10 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -11245,7 +11265,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -11284,7 +11304,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -11293,10 +11313,10 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3656</v>
+        <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -11323,7 +11343,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -11332,10 +11352,10 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>147</v>
+        <v>3656</v>
       </c>
       <c r="H280" t="n">
-        <v>0.12</v>
+        <v>3.06</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -11362,7 +11382,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -11371,10 +11391,10 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -11401,7 +11421,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -11410,13 +11430,13 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>61455</v>
+        <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>51.4</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -11440,7 +11460,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -11449,13 +11469,13 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>34825</v>
+        <v>61455</v>
       </c>
       <c r="H283" t="n">
-        <v>29.13</v>
+        <v>51.4</v>
       </c>
       <c r="I283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -11479,7 +11499,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -11488,13 +11508,13 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>304</v>
+        <v>34825</v>
       </c>
       <c r="H284" t="n">
-        <v>0.25</v>
+        <v>29.13</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -11518,7 +11538,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -11527,10 +11547,10 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>574</v>
+        <v>304</v>
       </c>
       <c r="H285" t="n">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -11557,7 +11577,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -11566,10 +11586,10 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="H286" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -11596,7 +11616,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -11605,10 +11625,10 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -11635,7 +11655,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -11644,10 +11664,10 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -11655,11 +11675,11 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Viseu</t>
+          <t>Vila Real</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -11674,7 +11694,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -11683,13 +11703,13 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>98097</v>
+        <v>234</v>
       </c>
       <c r="H289" t="n">
-        <v>48.39</v>
+        <v>0.2</v>
       </c>
       <c r="I289" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -11713,7 +11733,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -11722,13 +11742,13 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>98097</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291">
@@ -11752,7 +11772,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -11761,10 +11781,10 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -11791,7 +11811,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -11800,10 +11820,10 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -11830,7 +11850,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -11869,7 +11889,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -11878,10 +11898,10 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -11908,7 +11928,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -11917,10 +11937,10 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>295</v>
+        <v>696</v>
       </c>
       <c r="H295" t="n">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -11947,7 +11967,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -11956,13 +11976,13 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>54107</v>
+        <v>295</v>
       </c>
       <c r="H296" t="n">
-        <v>26.69</v>
+        <v>0.15</v>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -11986,7 +12006,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -11995,13 +12015,13 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>465</v>
+        <v>54107</v>
       </c>
       <c r="H297" t="n">
-        <v>0.23</v>
+        <v>26.69</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -12025,7 +12045,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -12034,10 +12054,10 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>5786</v>
+        <v>465</v>
       </c>
       <c r="H298" t="n">
-        <v>2.85</v>
+        <v>0.23</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -12064,7 +12084,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -12073,10 +12093,10 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>626</v>
+        <v>5786</v>
       </c>
       <c r="H299" t="n">
-        <v>0.31</v>
+        <v>2.85</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -12103,7 +12123,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -12112,10 +12132,10 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1229</v>
+        <v>626</v>
       </c>
       <c r="H300" t="n">
-        <v>0.61</v>
+        <v>0.31</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -12142,7 +12162,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -12151,10 +12171,10 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>1229</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -12181,7 +12201,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -12190,10 +12210,10 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>623</v>
+        <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -12220,7 +12240,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -12229,10 +12249,10 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>5810</v>
+        <v>623</v>
       </c>
       <c r="H303" t="n">
-        <v>2.87</v>
+        <v>0.31</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -12259,7 +12279,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -12268,10 +12288,10 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1456</v>
+        <v>5810</v>
       </c>
       <c r="H304" t="n">
-        <v>0.72</v>
+        <v>2.87</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -12298,7 +12318,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -12307,22 +12327,22 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>25087</v>
+        <v>1456</v>
       </c>
       <c r="H305" t="n">
-        <v>12.37</v>
+        <v>0.72</v>
       </c>
       <c r="I305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Angra do Heroísmo</t>
+          <t>Viseu</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -12337,7 +12357,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -12346,13 +12366,13 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>3965</v>
+        <v>25087</v>
       </c>
       <c r="H306" t="n">
-        <v>4.39</v>
+        <v>12.37</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -12376,7 +12396,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -12385,10 +12405,10 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>219</v>
+        <v>3965</v>
       </c>
       <c r="H307" t="n">
-        <v>0.24</v>
+        <v>4.39</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -12415,7 +12435,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -12424,10 +12444,10 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -12454,7 +12474,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -12493,7 +12513,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -12502,10 +12522,10 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -12532,7 +12552,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -12541,10 +12561,10 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>669</v>
+        <v>389</v>
       </c>
       <c r="H311" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -12571,7 +12591,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -12580,10 +12600,10 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>10896</v>
+        <v>669</v>
       </c>
       <c r="H312" t="n">
-        <v>12.07</v>
+        <v>0.74</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -12610,7 +12630,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -12619,13 +12639,13 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>23189</v>
+        <v>10896</v>
       </c>
       <c r="H313" t="n">
-        <v>25.69</v>
+        <v>12.07</v>
       </c>
       <c r="I313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -12649,7 +12669,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -12658,13 +12678,13 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2288</v>
+        <v>23189</v>
       </c>
       <c r="H314" t="n">
-        <v>2.53</v>
+        <v>25.69</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -12688,7 +12708,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -12697,10 +12717,10 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>293</v>
+        <v>2288</v>
       </c>
       <c r="H315" t="n">
-        <v>0.32</v>
+        <v>2.53</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -12727,7 +12747,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -12736,10 +12756,10 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -12766,7 +12786,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -12775,13 +12795,13 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>42622</v>
+        <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>47.21</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -12805,7 +12825,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -12814,13 +12834,13 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>257</v>
+        <v>42622</v>
       </c>
       <c r="H318" t="n">
-        <v>0.28</v>
+        <v>47.21</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -12844,7 +12864,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -12853,10 +12873,10 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -12883,7 +12903,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -12892,10 +12912,10 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -12922,7 +12942,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -12931,10 +12951,10 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>271</v>
+        <v>756</v>
       </c>
       <c r="H321" t="n">
-        <v>0.3</v>
+        <v>0.84</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -12961,7 +12981,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -12970,10 +12990,10 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="H322" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -12981,11 +13001,11 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Madeira</t>
+          <t>Angra do Heroísmo</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -13000,7 +13020,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -13009,10 +13029,10 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2992</v>
+        <v>314</v>
       </c>
       <c r="H323" t="n">
-        <v>2.15</v>
+        <v>0.35</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -13039,7 +13059,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -13048,10 +13068,10 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>461</v>
+        <v>2992</v>
       </c>
       <c r="H324" t="n">
-        <v>0.33</v>
+        <v>2.15</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -13078,7 +13098,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -13087,10 +13107,10 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -13117,7 +13137,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -13126,10 +13146,10 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2385</v>
+        <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -13156,7 +13176,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -13165,13 +13185,13 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>18977</v>
+        <v>2385</v>
       </c>
       <c r="H327" t="n">
-        <v>13.67</v>
+        <v>1.72</v>
       </c>
       <c r="I327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -13195,7 +13215,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -13204,13 +13224,13 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1967</v>
+        <v>18977</v>
       </c>
       <c r="H328" t="n">
-        <v>1.42</v>
+        <v>13.67</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -13234,7 +13254,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -13243,10 +13263,10 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0</v>
+        <v>1967</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -13273,7 +13293,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -13312,7 +13332,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -13321,10 +13341,10 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>4037</v>
+        <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -13351,7 +13371,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -13360,10 +13380,10 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>617</v>
+        <v>4037</v>
       </c>
       <c r="H332" t="n">
-        <v>0.44</v>
+        <v>2.91</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -13390,7 +13410,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -13399,10 +13419,10 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -13429,7 +13449,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -13438,13 +13458,13 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>68620</v>
+        <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>49.42</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -13468,7 +13488,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -13477,13 +13497,13 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>20360</v>
+        <v>68620</v>
       </c>
       <c r="H335" t="n">
-        <v>14.66</v>
+        <v>49.42</v>
       </c>
       <c r="I335" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336">
@@ -13507,7 +13527,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -13516,13 +13536,13 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>5568</v>
+        <v>20360</v>
       </c>
       <c r="H336" t="n">
-        <v>4.01</v>
+        <v>14.66</v>
       </c>
       <c r="I336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -13546,7 +13566,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -13555,10 +13575,10 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>538</v>
+        <v>5568</v>
       </c>
       <c r="H337" t="n">
-        <v>0.39</v>
+        <v>4.01</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -13585,7 +13605,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -13594,10 +13614,10 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>5096</v>
+        <v>538</v>
       </c>
       <c r="H338" t="n">
-        <v>3.67</v>
+        <v>0.39</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -13624,7 +13644,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -13633,10 +13653,10 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>2560</v>
+        <v>5096</v>
       </c>
       <c r="H339" t="n">
-        <v>1.84</v>
+        <v>3.67</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -13644,11 +13664,11 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Madeira</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -13663,7 +13683,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -13672,10 +13692,10 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>57995</v>
+        <v>2560</v>
       </c>
       <c r="H340" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -13702,7 +13722,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -13711,10 +13731,10 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>62610</v>
+        <v>57995</v>
       </c>
       <c r="H341" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -13741,7 +13761,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -13750,10 +13770,10 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>16895</v>
+        <v>62610</v>
       </c>
       <c r="H342" t="n">
-        <v>0.3</v>
+        <v>1.12</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -13780,7 +13800,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -13789,10 +13809,10 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>4569</v>
+        <v>16895</v>
       </c>
       <c r="H343" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -13819,7 +13839,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -13828,10 +13848,10 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>11806</v>
+        <v>4569</v>
       </c>
       <c r="H344" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -13858,7 +13878,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -13867,10 +13887,10 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>17548</v>
+        <v>11806</v>
       </c>
       <c r="H345" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -13897,7 +13917,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -13906,10 +13926,10 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>4572</v>
+        <v>17548</v>
       </c>
       <c r="H346" t="n">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -13936,7 +13956,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -13945,13 +13965,13 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2159181</v>
+        <v>4572</v>
       </c>
       <c r="H347" t="n">
-        <v>38.66</v>
+        <v>0.08</v>
       </c>
       <c r="I347" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -13975,7 +13995,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -13984,13 +14004,13 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>14687</v>
+        <v>2159181</v>
       </c>
       <c r="H348" t="n">
-        <v>0.26</v>
+        <v>38.66</v>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="349">
@@ -14014,7 +14034,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -14023,10 +14043,10 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>8209</v>
+        <v>14687</v>
       </c>
       <c r="H349" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -14053,7 +14073,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -14062,13 +14082,13 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1566347</v>
+        <v>8209</v>
       </c>
       <c r="H350" t="n">
-        <v>28.05</v>
+        <v>0.15</v>
       </c>
       <c r="I350" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -14092,7 +14112,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -14101,13 +14121,13 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>441147</v>
+        <v>1566347</v>
       </c>
       <c r="H351" t="n">
-        <v>7.9</v>
+        <v>28.05</v>
       </c>
       <c r="I351" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="352">
@@ -14131,7 +14151,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -14140,13 +14160,13 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>3588</v>
+        <v>441147</v>
       </c>
       <c r="H352" t="n">
-        <v>0.06</v>
+        <v>7.9</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353">
@@ -14170,7 +14190,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -14179,13 +14199,13 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>288923</v>
+        <v>3588</v>
       </c>
       <c r="H353" t="n">
-        <v>5.17</v>
+        <v>0.06</v>
       </c>
       <c r="I353" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -14209,7 +14229,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -14218,13 +14238,13 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>653888</v>
+        <v>288923</v>
       </c>
       <c r="H354" t="n">
-        <v>11.71</v>
+        <v>5.17</v>
       </c>
       <c r="I354" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355">
@@ -14248,7 +14268,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -14257,13 +14277,13 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>22705</v>
+        <v>653888</v>
       </c>
       <c r="H355" t="n">
-        <v>0.41</v>
+        <v>11.71</v>
       </c>
       <c r="I355" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="356">
@@ -14287,7 +14307,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -14296,10 +14316,10 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>21942</v>
+        <v>22705</v>
       </c>
       <c r="H356" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -14307,11 +14327,11 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>750040</v>
+        <v>230000</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Europa</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -14326,7 +14346,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -14335,10 +14355,10 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>101</v>
+        <v>21942</v>
       </c>
       <c r="H357" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -14365,7 +14385,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>PTP</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -14374,10 +14394,10 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H358" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -14404,7 +14424,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PTP</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -14413,10 +14433,10 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H359" t="n">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -14443,7 +14463,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -14452,10 +14472,10 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -14482,7 +14502,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -14491,10 +14511,10 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -14521,7 +14541,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -14530,10 +14550,10 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>803</v>
+        <v>132</v>
       </c>
       <c r="H362" t="n">
-        <v>4.41</v>
+        <v>0.73</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -14560,7 +14580,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -14569,10 +14589,10 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>994</v>
+        <v>803</v>
       </c>
       <c r="H363" t="n">
-        <v>5.46</v>
+        <v>4.41</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -14599,7 +14619,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -14608,10 +14628,10 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>602</v>
+        <v>994</v>
       </c>
       <c r="H364" t="n">
-        <v>3.31</v>
+        <v>5.46</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -14638,7 +14658,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -14647,10 +14667,10 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>192</v>
+        <v>602</v>
       </c>
       <c r="H365" t="n">
-        <v>1.06</v>
+        <v>3.31</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -14677,7 +14697,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -14686,10 +14706,10 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="H366" t="n">
-        <v>0.26</v>
+        <v>1.06</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -14716,7 +14736,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -14725,10 +14745,10 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H367" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -14755,7 +14775,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -14764,10 +14784,10 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H368" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -14794,7 +14814,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -14803,10 +14823,10 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -14833,7 +14853,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -14872,7 +14892,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -14881,13 +14901,13 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>5312</v>
+        <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -14911,7 +14931,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -14920,10 +14940,10 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>7205</v>
+        <v>5312</v>
       </c>
       <c r="H372" t="n">
-        <v>39.61</v>
+        <v>29.2</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -14950,7 +14970,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>P.H.</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -14959,22 +14979,22 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>19</v>
+        <v>7205</v>
       </c>
       <c r="H373" t="n">
-        <v>0.1</v>
+        <v>39.61</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>750050</v>
+        <v>750040</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Fora da Europa</t>
+          <t>Europa</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -14998,10 +15018,10 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H374" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -15028,7 +15048,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>P.H.</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -15037,10 +15057,10 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H375" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -15067,7 +15087,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>PND</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -15076,10 +15096,10 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="H376" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -15106,7 +15126,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>B.E.</t>
+          <t>PND</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -15115,10 +15135,10 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="H377" t="n">
-        <v>1.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -15145,7 +15165,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>PDA</t>
+          <t>B.E.</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -15154,10 +15174,10 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -15184,7 +15204,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>CDS-PP</t>
+          <t>PDA</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -15193,10 +15213,10 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>4.07</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -15223,7 +15243,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>PCP-PEV</t>
+          <t>CDS-PP</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -15232,10 +15252,10 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>127</v>
+        <v>615</v>
       </c>
       <c r="H380" t="n">
-        <v>0.84</v>
+        <v>4.07</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -15262,7 +15282,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PCP-PEV</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -15271,10 +15291,10 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="H381" t="n">
-        <v>0.34</v>
+        <v>0.84</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -15301,7 +15321,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -15310,10 +15330,10 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -15340,7 +15360,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -15349,13 +15369,13 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>8323</v>
+        <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>55.05</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -15379,7 +15399,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -15388,13 +15408,13 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>2714</v>
+        <v>8323</v>
       </c>
       <c r="H384" t="n">
-        <v>17.95</v>
+        <v>55.05</v>
       </c>
       <c r="I384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -15418,7 +15438,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -15427,10 +15447,10 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>87</v>
+        <v>2714</v>
       </c>
       <c r="H385" t="n">
-        <v>0.58</v>
+        <v>17.95</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -15457,7 +15477,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -15466,10 +15486,10 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H386" t="n">
-        <v>0.31</v>
+        <v>0.58</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -15496,7 +15516,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -15505,10 +15525,10 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -15535,7 +15555,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>PPV</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -15574,7 +15594,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>PPV</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -15583,10 +15603,10 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -15613,21 +15633,60 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
+          <t>MEP</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>125</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>750050</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Fora da Europa</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>05/06/2011</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
           <t>PTP</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G390" t="n">
-        <v>0</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="n">
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>0</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="n">
         <v>0</v>
       </c>
     </row>
